--- a/VideoGameCatalog.xlsx
+++ b/VideoGameCatalog.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Daniel\Documents\Trabalhos do Daniel\Universidade\ISEP\Informática\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Git\MyVideoGameCollection\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29010" windowHeight="11580" firstSheet="10" activeTab="13"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29016" windowHeight="11580" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="PlayStation 4" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
     <sheet name="Sega Saturn" sheetId="10" r:id="rId14"/>
     <sheet name="Sega Mega Drive" sheetId="16" r:id="rId15"/>
   </sheets>
-  <calcPr calcId="171027"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1517,7 +1517,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1968,14 +1968,14 @@
       <selection activeCell="A178" sqref="A178"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="49.85546875" style="6" customWidth="1"/>
+    <col min="1" max="1" width="49.88671875" style="6" customWidth="1"/>
     <col min="2" max="2" width="20" style="6" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="6"/>
+    <col min="3" max="16384" width="9.109375" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
@@ -1983,7 +1983,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>375</v>
       </c>
@@ -1991,7 +1991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>215</v>
       </c>
@@ -1999,7 +1999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>74</v>
       </c>
@@ -2007,7 +2007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>397</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>379</v>
       </c>
@@ -2023,7 +2023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="6" t="s">
         <v>417</v>
       </c>
@@ -2031,7 +2031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>432</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="6" t="s">
         <v>403</v>
       </c>
@@ -2047,7 +2047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="6" t="s">
         <v>289</v>
       </c>
@@ -2055,7 +2055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="6" t="s">
         <v>276</v>
       </c>
@@ -2063,7 +2063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>448</v>
       </c>
@@ -2071,7 +2071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="6" t="s">
         <v>64</v>
       </c>
@@ -2079,7 +2079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>65</v>
       </c>
@@ -2087,7 +2087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="6" t="s">
         <v>70</v>
       </c>
@@ -2095,7 +2095,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="6" t="s">
         <v>421</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="6" t="s">
         <v>256</v>
       </c>
@@ -2111,7 +2111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="6" t="s">
         <v>240</v>
       </c>
@@ -2119,7 +2119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="6" t="s">
         <v>408</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="6" t="s">
         <v>286</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="6" t="s">
         <v>209</v>
       </c>
@@ -2143,7 +2143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="6" t="s">
         <v>372</v>
       </c>
@@ -2151,7 +2151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="6" t="s">
         <v>72</v>
       </c>
@@ -2159,7 +2159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="6" t="s">
         <v>71</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>437</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>293</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="6" t="s">
         <v>59</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="6" t="s">
         <v>258</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>449</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="6" t="s">
         <v>69</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="6" t="s">
         <v>301</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="6" t="s">
         <v>391</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="6" t="s">
         <v>57</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="6" t="s">
         <v>400</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>472</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="6" t="s">
         <v>243</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>376</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="6" t="s">
         <v>225</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="6" t="s">
         <v>424</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>450</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="6" t="s">
         <v>227</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="6" t="s">
         <v>395</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="6" t="s">
         <v>220</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="6" t="s">
         <v>281</v>
       </c>
@@ -2327,7 +2327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="6" t="s">
         <v>399</v>
       </c>
@@ -2335,7 +2335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="6" t="s">
         <v>73</v>
       </c>
@@ -2343,7 +2343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>471</v>
       </c>
@@ -2351,7 +2351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="6" t="s">
         <v>255</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>476</v>
       </c>
@@ -2367,7 +2367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>440</v>
       </c>
@@ -2375,7 +2375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="6" t="s">
         <v>79</v>
       </c>
@@ -2383,7 +2383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="6" t="s">
         <v>223</v>
       </c>
@@ -2391,7 +2391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="6" t="s">
         <v>398</v>
       </c>
@@ -2399,7 +2399,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="6" t="s">
         <v>254</v>
       </c>
@@ -2407,7 +2407,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="6" t="s">
         <v>392</v>
       </c>
@@ -2415,7 +2415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="6" t="s">
         <v>288</v>
       </c>
@@ -2423,7 +2423,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="6" t="s">
         <v>245</v>
       </c>
@@ -2431,7 +2431,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="6" t="s">
         <v>377</v>
       </c>
@@ -2439,7 +2439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="6" t="s">
         <v>264</v>
       </c>
@@ -2447,7 +2447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>478</v>
       </c>
@@ -2455,7 +2455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>433</v>
       </c>
@@ -2463,7 +2463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="6" t="s">
         <v>68</v>
       </c>
@@ -2471,7 +2471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="6" t="s">
         <v>247</v>
       </c>
@@ -2479,7 +2479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="6" t="s">
         <v>237</v>
       </c>
@@ -2487,7 +2487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="6" t="s">
         <v>218</v>
       </c>
@@ -2495,7 +2495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="6" t="s">
         <v>61</v>
       </c>
@@ -2503,7 +2503,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="6" t="s">
         <v>60</v>
       </c>
@@ -2511,7 +2511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="6" t="s">
         <v>248</v>
       </c>
@@ -2519,7 +2519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="6" t="s">
         <v>406</v>
       </c>
@@ -2527,7 +2527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="6" t="s">
         <v>252</v>
       </c>
@@ -2535,7 +2535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="6" t="s">
         <v>217</v>
       </c>
@@ -2543,7 +2543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="6" t="s">
         <v>419</v>
       </c>
@@ -2551,7 +2551,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="6" t="s">
         <v>283</v>
       </c>
@@ -2559,7 +2559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="6" t="s">
         <v>413</v>
       </c>
@@ -2567,7 +2567,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="6" t="s">
         <v>51</v>
       </c>
@@ -2575,7 +2575,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="6" t="s">
         <v>285</v>
       </c>
@@ -2583,7 +2583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="6" t="s">
         <v>229</v>
       </c>
@@ -2591,7 +2591,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="6" t="s">
         <v>402</v>
       </c>
@@ -2599,7 +2599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="6" t="s">
         <v>267</v>
       </c>
@@ -2607,7 +2607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="6" t="s">
         <v>385</v>
       </c>
@@ -2615,7 +2615,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="6" t="s">
         <v>246</v>
       </c>
@@ -2623,7 +2623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>475</v>
       </c>
@@ -2631,7 +2631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>438</v>
       </c>
@@ -2639,7 +2639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="6" t="s">
         <v>231</v>
       </c>
@@ -2647,7 +2647,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="6" t="s">
         <v>382</v>
       </c>
@@ -2655,7 +2655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="6" t="s">
         <v>278</v>
       </c>
@@ -2663,7 +2663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="6" t="s">
         <v>387</v>
       </c>
@@ -2671,7 +2671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="6" t="s">
         <v>232</v>
       </c>
@@ -2679,7 +2679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="6" t="s">
         <v>298</v>
       </c>
@@ -2687,7 +2687,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="6" t="s">
         <v>76</v>
       </c>
@@ -2695,7 +2695,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="6" t="s">
         <v>371</v>
       </c>
@@ -2703,7 +2703,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="6" t="s">
         <v>299</v>
       </c>
@@ -2711,7 +2711,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="6" t="s">
         <v>244</v>
       </c>
@@ -2719,7 +2719,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="6" t="s">
         <v>50</v>
       </c>
@@ -2727,7 +2727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="6" t="s">
         <v>67</v>
       </c>
@@ -2735,7 +2735,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="6" t="s">
         <v>66</v>
       </c>
@@ -2743,7 +2743,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="6" t="s">
         <v>62</v>
       </c>
@@ -2751,7 +2751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="6" t="s">
         <v>63</v>
       </c>
@@ -2759,7 +2759,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="6" t="s">
         <v>226</v>
       </c>
@@ -2767,7 +2767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="6" t="s">
         <v>263</v>
       </c>
@@ -2775,7 +2775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="6" t="s">
         <v>389</v>
       </c>
@@ -2783,7 +2783,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="6" t="s">
         <v>212</v>
       </c>
@@ -2791,7 +2791,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="6" t="s">
         <v>55</v>
       </c>
@@ -2799,7 +2799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="6" t="s">
         <v>297</v>
       </c>
@@ -2807,7 +2807,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="6" t="s">
         <v>251</v>
       </c>
@@ -2815,7 +2815,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="6" t="s">
         <v>296</v>
       </c>
@@ -2823,7 +2823,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="6" t="s">
         <v>253</v>
       </c>
@@ -2831,7 +2831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="6" t="s">
         <v>207</v>
       </c>
@@ -2839,7 +2839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="6" t="s">
         <v>52</v>
       </c>
@@ -2847,7 +2847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="6" t="s">
         <v>210</v>
       </c>
@@ -2855,7 +2855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="6" t="s">
         <v>268</v>
       </c>
@@ -2863,7 +2863,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="6" t="s">
         <v>56</v>
       </c>
@@ -2871,7 +2871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>479</v>
       </c>
@@ -2879,7 +2879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="6" t="s">
         <v>280</v>
       </c>
@@ -2887,7 +2887,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="6" t="s">
         <v>216</v>
       </c>
@@ -2895,7 +2895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>439</v>
       </c>
@@ -2903,7 +2903,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="6" t="s">
         <v>269</v>
       </c>
@@ -2911,7 +2911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="6" t="s">
         <v>277</v>
       </c>
@@ -2919,7 +2919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="6" t="s">
         <v>78</v>
       </c>
@@ -2927,7 +2927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="6" t="s">
         <v>77</v>
       </c>
@@ -2935,7 +2935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="6" t="s">
         <v>412</v>
       </c>
@@ -2943,7 +2943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>477</v>
       </c>
@@ -2951,7 +2951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="6" t="s">
         <v>80</v>
       </c>
@@ -2959,7 +2959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="6" t="s">
         <v>265</v>
       </c>
@@ -2967,7 +2967,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="6" t="s">
         <v>82</v>
       </c>
@@ -2975,7 +2975,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="6" t="s">
         <v>257</v>
       </c>
@@ -2983,7 +2983,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="6" t="s">
         <v>221</v>
       </c>
@@ -2991,7 +2991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="6" t="s">
         <v>416</v>
       </c>
@@ -2999,7 +2999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="6" t="s">
         <v>414</v>
       </c>
@@ -3007,7 +3007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="6" t="s">
         <v>230</v>
       </c>
@@ -3015,7 +3015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="6" t="s">
         <v>386</v>
       </c>
@@ -3023,7 +3023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>451</v>
       </c>
@@ -3031,7 +3031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="6" t="s">
         <v>294</v>
       </c>
@@ -3039,7 +3039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="6" t="s">
         <v>233</v>
       </c>
@@ -3047,7 +3047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="6" t="s">
         <v>287</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="6" t="s">
         <v>54</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="6" t="s">
         <v>282</v>
       </c>
@@ -3071,7 +3071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="6" t="s">
         <v>228</v>
       </c>
@@ -3079,7 +3079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="6" t="s">
         <v>222</v>
       </c>
@@ -3087,7 +3087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="6" t="s">
         <v>239</v>
       </c>
@@ -3095,7 +3095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="6" t="s">
         <v>235</v>
       </c>
@@ -3103,7 +3103,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="6" t="s">
         <v>262</v>
       </c>
@@ -3111,7 +3111,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="6" t="s">
         <v>260</v>
       </c>
@@ -3119,7 +3119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="6" t="s">
         <v>378</v>
       </c>
@@ -3127,7 +3127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="6" t="s">
         <v>300</v>
       </c>
@@ -3135,7 +3135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="6" t="s">
         <v>53</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="6" t="s">
         <v>236</v>
       </c>
@@ -3151,7 +3151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="6" t="s">
         <v>279</v>
       </c>
@@ -3159,7 +3159,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="6" t="s">
         <v>81</v>
       </c>
@@ -3167,7 +3167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="6" t="s">
         <v>58</v>
       </c>
@@ -3175,7 +3175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="6" t="s">
         <v>272</v>
       </c>
@@ -3183,7 +3183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="6" t="s">
         <v>290</v>
       </c>
@@ -3191,7 +3191,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="6" t="s">
         <v>219</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="6" t="s">
         <v>242</v>
       </c>
@@ -3207,7 +3207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="6" t="s">
         <v>291</v>
       </c>
@@ -3215,7 +3215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="6" t="s">
         <v>284</v>
       </c>
@@ -3223,7 +3223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="6" t="s">
         <v>292</v>
       </c>
@@ -3231,7 +3231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="2" t="s">
         <v>431</v>
       </c>
@@ -3239,7 +3239,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="6" t="s">
         <v>295</v>
       </c>
@@ -3247,7 +3247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="6" t="s">
         <v>213</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="6" t="s">
         <v>75</v>
       </c>
@@ -3263,7 +3263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="6" t="s">
         <v>270</v>
       </c>
@@ -3271,7 +3271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="6" t="s">
         <v>261</v>
       </c>
@@ -3279,7 +3279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="6" t="s">
         <v>381</v>
       </c>
@@ -3287,7 +3287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="6" t="s">
         <v>113</v>
       </c>
@@ -3295,7 +3295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="6" t="s">
         <v>271</v>
       </c>
@@ -3303,7 +3303,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
         <v>454</v>
       </c>
@@ -3311,7 +3311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="6" t="s">
         <v>238</v>
       </c>
@@ -3319,7 +3319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="6" t="s">
         <v>393</v>
       </c>
@@ -3327,7 +3327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="6" t="s">
         <v>423</v>
       </c>
@@ -3335,7 +3335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="6" t="s">
         <v>208</v>
       </c>
@@ -3343,7 +3343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="6" t="s">
         <v>407</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="6" t="s">
         <v>211</v>
       </c>
@@ -3359,7 +3359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="6" t="s">
         <v>422</v>
       </c>
@@ -3367,7 +3367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="6" t="s">
         <v>234</v>
       </c>
@@ -3375,7 +3375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="6" t="s">
         <v>259</v>
       </c>
@@ -3383,7 +3383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="11"/>
     </row>
   </sheetData>
@@ -3403,12 +3403,12 @@
       <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="55.42578125" customWidth="1"/>
+    <col min="1" max="1" width="55.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3416,7 +3416,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>35</v>
       </c>
@@ -3424,7 +3424,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>39</v>
       </c>
@@ -3432,7 +3432,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>37</v>
       </c>
@@ -3440,7 +3440,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>38</v>
       </c>
@@ -3448,7 +3448,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>36</v>
       </c>
@@ -3472,12 +3472,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>20</v>
       </c>
@@ -3493,7 +3493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>31</v>
       </c>
@@ -3501,7 +3501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>33</v>
       </c>
@@ -3509,7 +3509,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -3517,7 +3517,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>26</v>
       </c>
@@ -3525,7 +3525,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>23</v>
       </c>
@@ -3533,7 +3533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -3541,7 +3541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -3549,7 +3549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -3557,7 +3557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>30</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>27</v>
       </c>
@@ -3573,7 +3573,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>430</v>
       </c>
@@ -3581,7 +3581,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>29</v>
       </c>
@@ -3589,7 +3589,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>34</v>
       </c>
@@ -3597,7 +3597,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>28</v>
       </c>
@@ -3605,7 +3605,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>21</v>
       </c>
@@ -3613,7 +3613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>25</v>
       </c>
@@ -3629,7 +3629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
@@ -3654,13 +3654,13 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.42578125" customWidth="1"/>
-    <col min="2" max="2" width="23.42578125" customWidth="1"/>
+    <col min="1" max="1" width="22.44140625" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3668,7 +3668,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>466</v>
       </c>
@@ -3676,7 +3676,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>456</v>
       </c>
@@ -3684,7 +3684,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>460</v>
       </c>
@@ -3692,7 +3692,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>458</v>
       </c>
@@ -3700,7 +3700,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>459</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>461</v>
       </c>
@@ -3716,7 +3716,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>457</v>
       </c>
@@ -3724,7 +3724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>21</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>465</v>
       </c>
@@ -3756,13 +3756,13 @@
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="36.42578125" customWidth="1"/>
+    <col min="1" max="1" width="36.44140625" customWidth="1"/>
     <col min="2" max="2" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3770,7 +3770,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>464</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>462</v>
       </c>
@@ -3786,7 +3786,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>463</v>
       </c>
@@ -3794,7 +3794,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>467</v>
       </c>
@@ -3802,7 +3802,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>468</v>
       </c>
@@ -3822,17 +3822,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" style="4" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="46.33203125" style="4" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3840,7 +3840,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>15</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
@@ -3856,7 +3856,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>483</v>
       </c>
@@ -3876,17 +3876,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.85546875" customWidth="1"/>
-    <col min="2" max="2" width="11.42578125" customWidth="1"/>
+    <col min="1" max="1" width="38.88671875" customWidth="1"/>
+    <col min="2" max="2" width="11.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -3894,7 +3894,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>474</v>
       </c>
@@ -3902,7 +3902,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
     </row>
@@ -3919,13 +3919,13 @@
       <selection activeCell="A100" sqref="A100"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" customWidth="1"/>
+    <col min="1" max="1" width="38.109375" customWidth="1"/>
+    <col min="2" max="2" width="19.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3933,7 +3933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>375</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>318</v>
       </c>
@@ -3949,7 +3949,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>315</v>
       </c>
@@ -3957,7 +3957,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>312</v>
       </c>
@@ -3965,7 +3965,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>354</v>
       </c>
@@ -3973,7 +3973,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>276</v>
       </c>
@@ -3981,7 +3981,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>44</v>
       </c>
@@ -3989,7 +3989,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>240</v>
       </c>
@@ -3997,7 +3997,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>425</v>
       </c>
@@ -4005,7 +4005,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>362</v>
       </c>
@@ -4013,7 +4013,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>317</v>
       </c>
@@ -4021,7 +4021,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>286</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>209</v>
       </c>
@@ -4037,7 +4037,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>372</v>
       </c>
@@ -4045,7 +4045,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>293</v>
       </c>
@@ -4053,7 +4053,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>391</v>
       </c>
@@ -4061,7 +4061,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>400</v>
       </c>
@@ -4069,7 +4069,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>243</v>
       </c>
@@ -4077,7 +4077,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>424</v>
       </c>
@@ -4085,7 +4085,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>396</v>
       </c>
@@ -4093,7 +4093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>227</v>
       </c>
@@ -4101,7 +4101,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>45</v>
       </c>
@@ -4109,7 +4109,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>480</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>255</v>
       </c>
@@ -4125,7 +4125,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>440</v>
       </c>
@@ -4133,7 +4133,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>42</v>
       </c>
@@ -4141,7 +4141,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>223</v>
       </c>
@@ -4149,7 +4149,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>288</v>
       </c>
@@ -4157,7 +4157,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>307</v>
       </c>
@@ -4165,7 +4165,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>341</v>
       </c>
@@ -4173,7 +4173,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>340</v>
       </c>
@@ -4181,7 +4181,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>478</v>
       </c>
@@ -4189,7 +4189,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>247</v>
       </c>
@@ -4197,7 +4197,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>411</v>
       </c>
@@ -4205,7 +4205,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>252</v>
       </c>
@@ -4213,7 +4213,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>357</v>
       </c>
@@ -4221,7 +4221,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>217</v>
       </c>
@@ -4229,7 +4229,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>419</v>
       </c>
@@ -4237,7 +4237,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>418</v>
       </c>
@@ -4245,7 +4245,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>332</v>
       </c>
@@ -4253,7 +4253,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>361</v>
       </c>
@@ -4261,7 +4261,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>337</v>
       </c>
@@ -4269,7 +4269,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>358</v>
       </c>
@@ -4277,7 +4277,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>363</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>382</v>
       </c>
@@ -4293,7 +4293,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>336</v>
       </c>
@@ -4301,7 +4301,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>278</v>
       </c>
@@ -4309,7 +4309,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>405</v>
       </c>
@@ -4317,7 +4317,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>339</v>
       </c>
@@ -4325,7 +4325,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>299</v>
       </c>
@@ -4333,7 +4333,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>333</v>
       </c>
@@ -4341,7 +4341,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>226</v>
       </c>
@@ -4349,7 +4349,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>335</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>389</v>
       </c>
@@ -4365,7 +4365,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>353</v>
       </c>
@@ -4373,7 +4373,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>321</v>
       </c>
@@ -4381,7 +4381,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>253</v>
       </c>
@@ -4389,7 +4389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>207</v>
       </c>
@@ -4397,7 +4397,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>204</v>
       </c>
@@ -4405,7 +4405,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>210</v>
       </c>
@@ -4413,7 +4413,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>334</v>
       </c>
@@ -4421,7 +4421,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>330</v>
       </c>
@@ -4429,7 +4429,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>306</v>
       </c>
@@ -4437,7 +4437,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>455</v>
       </c>
@@ -4445,7 +4445,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>355</v>
       </c>
@@ -4453,7 +4453,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>216</v>
       </c>
@@ -4461,7 +4461,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>338</v>
       </c>
@@ -4469,7 +4469,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>352</v>
       </c>
@@ -4477,7 +4477,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>322</v>
       </c>
@@ -4485,7 +4485,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>367</v>
       </c>
@@ -4493,7 +4493,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>416</v>
       </c>
@@ -4501,7 +4501,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>230</v>
       </c>
@@ -4509,7 +4509,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>386</v>
       </c>
@@ -4517,7 +4517,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>233</v>
       </c>
@@ -4525,7 +4525,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>360</v>
       </c>
@@ -4533,7 +4533,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>369</v>
       </c>
@@ -4541,7 +4541,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>235</v>
       </c>
@@ -4549,7 +4549,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>262</v>
       </c>
@@ -4557,7 +4557,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>272</v>
       </c>
@@ -4565,7 +4565,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>224</v>
       </c>
@@ -4573,7 +4573,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>290</v>
       </c>
@@ -4581,7 +4581,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>219</v>
       </c>
@@ -4589,7 +4589,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>284</v>
       </c>
@@ -4597,7 +4597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>292</v>
       </c>
@@ -4605,7 +4605,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>295</v>
       </c>
@@ -4613,7 +4613,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>380</v>
       </c>
@@ -4621,7 +4621,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>271</v>
       </c>
@@ -4629,7 +4629,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>454</v>
       </c>
@@ -4637,7 +4637,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>205</v>
       </c>
@@ -4645,7 +4645,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>320</v>
       </c>
@@ -4653,7 +4653,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>441</v>
       </c>
@@ -4661,7 +4661,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
         <v>407</v>
       </c>
@@ -4669,7 +4669,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>211</v>
       </c>
@@ -4677,7 +4677,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>206</v>
       </c>
@@ -4685,7 +4685,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>351</v>
       </c>
@@ -4693,7 +4693,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" s="11"/>
     </row>
   </sheetData>
@@ -4712,14 +4712,14 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="99.28515625" style="10" customWidth="1"/>
+    <col min="1" max="1" width="99.33203125" style="10" customWidth="1"/>
     <col min="2" max="2" width="22" style="10" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="10"/>
+    <col min="3" max="16384" width="9.109375" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
@@ -4727,7 +4727,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="10" t="s">
         <v>215</v>
       </c>
@@ -4735,7 +4735,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="10" t="s">
         <v>388</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="10" t="s">
         <v>373</v>
       </c>
@@ -4751,7 +4751,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="10" t="s">
         <v>198</v>
       </c>
@@ -4759,7 +4759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="10" t="s">
         <v>356</v>
       </c>
@@ -4767,7 +4767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="10" t="s">
         <v>91</v>
       </c>
@@ -4775,7 +4775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="10" t="s">
         <v>92</v>
       </c>
@@ -4783,7 +4783,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="10" t="s">
         <v>108</v>
       </c>
@@ -4791,7 +4791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="10" t="s">
         <v>107</v>
       </c>
@@ -4799,7 +4799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="10" t="s">
         <v>125</v>
       </c>
@@ -4807,7 +4807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>123</v>
       </c>
@@ -4815,7 +4815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="10" t="s">
         <v>124</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="10" t="s">
         <v>121</v>
       </c>
@@ -4831,7 +4831,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="10" t="s">
         <v>122</v>
       </c>
@@ -4839,7 +4839,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="10" t="s">
         <v>163</v>
       </c>
@@ -4847,7 +4847,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="10" t="s">
         <v>276</v>
       </c>
@@ -4855,7 +4855,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="10" t="s">
         <v>112</v>
       </c>
@@ -4863,7 +4863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="10" t="s">
         <v>111</v>
       </c>
@@ -4871,7 +4871,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" s="10" t="s">
         <v>110</v>
       </c>
@@ -4879,7 +4879,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="10" t="s">
         <v>184</v>
       </c>
@@ -4887,7 +4887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="10" t="s">
         <v>329</v>
       </c>
@@ -4895,7 +4895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="10" t="s">
         <v>168</v>
       </c>
@@ -4903,7 +4903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="10" t="s">
         <v>313</v>
       </c>
@@ -4911,7 +4911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="10" t="s">
         <v>187</v>
       </c>
@@ -4919,7 +4919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="10" t="s">
         <v>186</v>
       </c>
@@ -4927,7 +4927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="10" t="s">
         <v>83</v>
       </c>
@@ -4935,7 +4935,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="10" t="s">
         <v>84</v>
       </c>
@@ -4943,7 +4943,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="10" t="s">
         <v>370</v>
       </c>
@@ -4951,7 +4951,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="10" t="s">
         <v>383</v>
       </c>
@@ -4959,7 +4959,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="10" t="s">
         <v>180</v>
       </c>
@@ -4967,7 +4967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="10" t="s">
         <v>188</v>
       </c>
@@ -4975,7 +4975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="10" t="s">
         <v>160</v>
       </c>
@@ -4983,7 +4983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="10" t="s">
         <v>162</v>
       </c>
@@ -4991,7 +4991,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="10" t="s">
         <v>326</v>
       </c>
@@ -4999,7 +4999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="10" t="s">
         <v>303</v>
       </c>
@@ -5007,7 +5007,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="10" t="s">
         <v>47</v>
       </c>
@@ -5015,7 +5015,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="10" t="s">
         <v>362</v>
       </c>
@@ -5023,7 +5023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="10" t="s">
         <v>241</v>
       </c>
@@ -5031,7 +5031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="10" t="s">
         <v>173</v>
       </c>
@@ -5039,7 +5039,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="10" t="s">
         <v>109</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="10" t="s">
         <v>250</v>
       </c>
@@ -5055,7 +5055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="10" t="s">
         <v>359</v>
       </c>
@@ -5063,7 +5063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="10" t="s">
         <v>408</v>
       </c>
@@ -5071,7 +5071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="10" t="s">
         <v>304</v>
       </c>
@@ -5079,7 +5079,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="10" t="s">
         <v>316</v>
       </c>
@@ -5087,7 +5087,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="10" t="s">
         <v>209</v>
       </c>
@@ -5095,7 +5095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="10" t="s">
         <v>138</v>
       </c>
@@ -5103,7 +5103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="10" t="s">
         <v>88</v>
       </c>
@@ -5111,7 +5111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="10" t="s">
         <v>87</v>
       </c>
@@ -5119,7 +5119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="10" t="s">
         <v>157</v>
       </c>
@@ -5127,7 +5127,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="10" t="s">
         <v>158</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="10" t="s">
         <v>214</v>
       </c>
@@ -5143,7 +5143,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="10" t="s">
         <v>343</v>
       </c>
@@ -5151,7 +5151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="10" t="s">
         <v>115</v>
       </c>
@@ -5159,7 +5159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="10" t="s">
         <v>116</v>
       </c>
@@ -5167,7 +5167,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="10" t="s">
         <v>117</v>
       </c>
@@ -5175,7 +5175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="10" t="s">
         <v>89</v>
       </c>
@@ -5183,7 +5183,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="10" t="s">
         <v>132</v>
       </c>
@@ -5191,7 +5191,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="10" t="s">
         <v>130</v>
       </c>
@@ -5199,7 +5199,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="10" t="s">
         <v>131</v>
       </c>
@@ -5207,7 +5207,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="10" t="s">
         <v>365</v>
       </c>
@@ -5215,7 +5215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="10" t="s">
         <v>133</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="10" t="s">
         <v>203</v>
       </c>
@@ -5231,7 +5231,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="10" t="s">
         <v>309</v>
       </c>
@@ -5239,7 +5239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="10" t="s">
         <v>243</v>
       </c>
@@ -5247,7 +5247,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="10" t="s">
         <v>118</v>
       </c>
@@ -5255,7 +5255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" s="10" t="s">
         <v>140</v>
       </c>
@@ -5263,7 +5263,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" s="10" t="s">
         <v>90</v>
       </c>
@@ -5271,7 +5271,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" s="10" t="s">
         <v>348</v>
       </c>
@@ -5279,7 +5279,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" s="10" t="s">
         <v>227</v>
       </c>
@@ -5287,7 +5287,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>480</v>
       </c>
@@ -5295,7 +5295,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" s="10" t="s">
         <v>139</v>
       </c>
@@ -5303,7 +5303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" s="10" t="s">
         <v>305</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" s="10" t="s">
         <v>368</v>
       </c>
@@ -5319,7 +5319,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" s="10" t="s">
         <v>194</v>
       </c>
@@ -5327,7 +5327,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" s="10" t="s">
         <v>195</v>
       </c>
@@ -5335,7 +5335,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" s="10" t="s">
         <v>196</v>
       </c>
@@ -5343,7 +5343,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" s="10" t="s">
         <v>193</v>
       </c>
@@ -5351,7 +5351,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" s="10" t="s">
         <v>192</v>
       </c>
@@ -5359,7 +5359,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" s="10" t="s">
         <v>191</v>
       </c>
@@ -5367,7 +5367,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="10" t="s">
         <v>94</v>
       </c>
@@ -5375,7 +5375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" s="10" t="s">
         <v>48</v>
       </c>
@@ -5383,7 +5383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" s="10" t="s">
         <v>275</v>
       </c>
@@ -5391,7 +5391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" s="10" t="s">
         <v>177</v>
       </c>
@@ -5399,7 +5399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" s="10" t="s">
         <v>190</v>
       </c>
@@ -5407,7 +5407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" s="10" t="s">
         <v>328</v>
       </c>
@@ -5415,7 +5415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" s="10" t="s">
         <v>176</v>
       </c>
@@ -5423,7 +5423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" s="10" t="s">
         <v>175</v>
       </c>
@@ -5431,7 +5431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" s="10" t="s">
         <v>46</v>
       </c>
@@ -5439,7 +5439,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" s="10" t="s">
         <v>127</v>
       </c>
@@ -5447,7 +5447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" s="10" t="s">
         <v>126</v>
       </c>
@@ -5455,7 +5455,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" s="10" t="s">
         <v>128</v>
       </c>
@@ -5463,7 +5463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" s="10" t="s">
         <v>319</v>
       </c>
@@ -5471,7 +5471,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>478</v>
       </c>
@@ -5479,7 +5479,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A96" s="10" t="s">
         <v>364</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="10" t="s">
         <v>409</v>
       </c>
@@ -5495,7 +5495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="10" t="s">
         <v>137</v>
       </c>
@@ -5503,7 +5503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="10" t="s">
         <v>252</v>
       </c>
@@ -5511,7 +5511,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="10" t="s">
         <v>217</v>
       </c>
@@ -5519,7 +5519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="10" t="s">
         <v>418</v>
       </c>
@@ -5527,7 +5527,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" s="10" t="s">
         <v>283</v>
       </c>
@@ -5535,7 +5535,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="10" t="s">
         <v>327</v>
       </c>
@@ -5543,7 +5543,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="10" t="s">
         <v>185</v>
       </c>
@@ -5551,7 +5551,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="10" t="s">
         <v>199</v>
       </c>
@@ -5559,7 +5559,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="10" t="s">
         <v>197</v>
       </c>
@@ -5567,7 +5567,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="10" t="s">
         <v>374</v>
       </c>
@@ -5575,7 +5575,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="10" t="s">
         <v>149</v>
       </c>
@@ -5583,7 +5583,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="10" t="s">
         <v>174</v>
       </c>
@@ -5591,7 +5591,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="10" t="s">
         <v>102</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="10" t="s">
         <v>229</v>
       </c>
@@ -5607,7 +5607,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" s="10" t="s">
         <v>183</v>
       </c>
@@ -5615,7 +5615,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="10" t="s">
         <v>361</v>
       </c>
@@ -5623,7 +5623,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="114" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" s="10" t="s">
         <v>114</v>
       </c>
@@ -5631,7 +5631,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="10" t="s">
         <v>358</v>
       </c>
@@ -5639,7 +5639,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="10" t="s">
         <v>181</v>
       </c>
@@ -5647,7 +5647,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="10" t="s">
         <v>349</v>
       </c>
@@ -5655,7 +5655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="10" t="s">
         <v>324</v>
       </c>
@@ -5663,7 +5663,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="10" t="s">
         <v>308</v>
       </c>
@@ -5671,7 +5671,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="10" t="s">
         <v>311</v>
       </c>
@@ -5679,7 +5679,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="10" t="s">
         <v>150</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="10" t="s">
         <v>152</v>
       </c>
@@ -5695,7 +5695,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="10" t="s">
         <v>151</v>
       </c>
@@ -5703,7 +5703,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="10" t="s">
         <v>119</v>
       </c>
@@ -5711,7 +5711,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="10" t="s">
         <v>172</v>
       </c>
@@ -5719,7 +5719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="10" t="s">
         <v>415</v>
       </c>
@@ -5727,7 +5727,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="10" t="s">
         <v>85</v>
       </c>
@@ -5735,7 +5735,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="10" t="s">
         <v>201</v>
       </c>
@@ -5743,7 +5743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="10" t="s">
         <v>86</v>
       </c>
@@ -5751,7 +5751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="10" t="s">
         <v>189</v>
       </c>
@@ -5759,7 +5759,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="10" t="s">
         <v>226</v>
       </c>
@@ -5767,7 +5767,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
         <v>482</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="133" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" s="10" t="s">
         <v>100</v>
       </c>
@@ -5783,7 +5783,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" s="10" t="s">
         <v>165</v>
       </c>
@@ -5791,7 +5791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="10" t="s">
         <v>154</v>
       </c>
@@ -5799,7 +5799,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="10" t="s">
         <v>156</v>
       </c>
@@ -5807,7 +5807,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="10" t="s">
         <v>155</v>
       </c>
@@ -5815,7 +5815,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="10" t="s">
         <v>159</v>
       </c>
@@ -5823,7 +5823,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="10" t="s">
         <v>253</v>
       </c>
@@ -5831,7 +5831,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="10" t="s">
         <v>207</v>
       </c>
@@ -5839,7 +5839,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="10" t="s">
         <v>200</v>
       </c>
@@ -5847,7 +5847,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" s="10" t="s">
         <v>120</v>
       </c>
@@ -5855,7 +5855,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="10" t="s">
         <v>98</v>
       </c>
@@ -5863,7 +5863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="10" t="s">
         <v>97</v>
       </c>
@@ -5871,7 +5871,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="10" t="s">
         <v>384</v>
       </c>
@@ -5879,7 +5879,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="10" t="s">
         <v>182</v>
       </c>
@@ -5887,7 +5887,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="147" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A147" s="10" t="s">
         <v>325</v>
       </c>
@@ -5895,7 +5895,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="148" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A148" s="10" t="s">
         <v>161</v>
       </c>
@@ -5903,7 +5903,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="10" t="s">
         <v>355</v>
       </c>
@@ -5911,7 +5911,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="10" t="s">
         <v>273</v>
       </c>
@@ -5919,7 +5919,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="10" t="s">
         <v>216</v>
       </c>
@@ -5927,7 +5927,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="10" t="s">
         <v>427</v>
       </c>
@@ -5935,7 +5935,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="10" t="s">
         <v>342</v>
       </c>
@@ -5943,7 +5943,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="10" t="s">
         <v>143</v>
       </c>
@@ -5951,7 +5951,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="10" t="s">
         <v>144</v>
       </c>
@@ -5959,7 +5959,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A156" s="10" t="s">
         <v>166</v>
       </c>
@@ -5967,7 +5967,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="10" t="s">
         <v>170</v>
       </c>
@@ -5975,7 +5975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="10" t="s">
         <v>171</v>
       </c>
@@ -5983,7 +5983,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="10" t="s">
         <v>426</v>
       </c>
@@ -5991,7 +5991,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
         <v>452</v>
       </c>
@@ -5999,7 +5999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="10" t="s">
         <v>178</v>
       </c>
@@ -6007,7 +6007,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="10" t="s">
         <v>167</v>
       </c>
@@ -6015,7 +6015,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="10" t="s">
         <v>345</v>
       </c>
@@ -6023,7 +6023,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="164" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" s="10" t="s">
         <v>346</v>
       </c>
@@ -6031,7 +6031,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="10" t="s">
         <v>416</v>
       </c>
@@ -6039,7 +6039,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="166" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" s="10" t="s">
         <v>404</v>
       </c>
@@ -6047,7 +6047,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="167" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="10" t="s">
         <v>148</v>
       </c>
@@ -6055,7 +6055,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="168" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" s="10" t="s">
         <v>147</v>
       </c>
@@ -6063,7 +6063,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="10" t="s">
         <v>274</v>
       </c>
@@ -6071,7 +6071,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="10" t="s">
         <v>146</v>
       </c>
@@ -6079,7 +6079,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="10" t="s">
         <v>145</v>
       </c>
@@ -6087,7 +6087,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="10" t="s">
         <v>266</v>
       </c>
@@ -6095,7 +6095,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="10" t="s">
         <v>106</v>
       </c>
@@ -6103,7 +6103,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="10" t="s">
         <v>105</v>
       </c>
@@ -6111,7 +6111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="10" t="s">
         <v>230</v>
       </c>
@@ -6119,7 +6119,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
         <v>481</v>
       </c>
@@ -6127,7 +6127,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="10" t="s">
         <v>428</v>
       </c>
@@ -6135,7 +6135,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="10" t="s">
         <v>164</v>
       </c>
@@ -6143,7 +6143,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="10" t="s">
         <v>310</v>
       </c>
@@ -6151,7 +6151,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="10" t="s">
         <v>129</v>
       </c>
@@ -6159,7 +6159,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="10" t="s">
         <v>366</v>
       </c>
@@ -6167,7 +6167,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="182" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" s="10" t="s">
         <v>233</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="183" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" s="10" t="s">
         <v>202</v>
       </c>
@@ -6183,7 +6183,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" s="10" t="s">
         <v>93</v>
       </c>
@@ -6191,7 +6191,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="10" t="s">
         <v>401</v>
       </c>
@@ -6199,7 +6199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="10" t="s">
         <v>350</v>
       </c>
@@ -6207,7 +6207,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="10" t="s">
         <v>49</v>
       </c>
@@ -6215,7 +6215,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="10" t="s">
         <v>442</v>
       </c>
@@ -6223,7 +6223,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="s">
         <v>447</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="10" t="s">
         <v>420</v>
       </c>
@@ -6239,7 +6239,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="10" t="s">
         <v>95</v>
       </c>
@@ -6247,7 +6247,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" s="10" t="s">
         <v>96</v>
       </c>
@@ -6255,7 +6255,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" s="10" t="s">
         <v>236</v>
       </c>
@@ -6263,7 +6263,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
         <v>453</v>
       </c>
@@ -6271,7 +6271,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" s="10" t="s">
         <v>434</v>
       </c>
@@ -6279,7 +6279,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="10" t="s">
         <v>142</v>
       </c>
@@ -6287,7 +6287,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="10" t="s">
         <v>104</v>
       </c>
@@ -6295,7 +6295,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="10" t="s">
         <v>103</v>
       </c>
@@ -6303,7 +6303,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="10" t="s">
         <v>347</v>
       </c>
@@ -6311,7 +6311,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="10" t="s">
         <v>179</v>
       </c>
@@ -6319,7 +6319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="10" t="s">
         <v>224</v>
       </c>
@@ -6327,7 +6327,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="10" t="s">
         <v>290</v>
       </c>
@@ -6335,7 +6335,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="10" t="s">
         <v>219</v>
       </c>
@@ -6343,7 +6343,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="10" t="s">
         <v>284</v>
       </c>
@@ -6351,7 +6351,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="10" t="s">
         <v>394</v>
       </c>
@@ -6359,7 +6359,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" s="10" t="s">
         <v>323</v>
       </c>
@@ -6367,7 +6367,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="10" t="s">
         <v>213</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" s="10" t="s">
         <v>410</v>
       </c>
@@ -6383,7 +6383,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" s="10" t="s">
         <v>344</v>
       </c>
@@ -6391,7 +6391,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" s="10" t="s">
         <v>113</v>
       </c>
@@ -6399,7 +6399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" s="10" t="s">
         <v>99</v>
       </c>
@@ -6407,7 +6407,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" s="10" t="s">
         <v>271</v>
       </c>
@@ -6415,7 +6415,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" s="10" t="s">
         <v>135</v>
       </c>
@@ -6423,7 +6423,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" s="10" t="s">
         <v>134</v>
       </c>
@@ -6431,7 +6431,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" s="10" t="s">
         <v>136</v>
       </c>
@@ -6439,7 +6439,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" s="10" t="s">
         <v>249</v>
       </c>
@@ -6447,7 +6447,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" s="10" t="s">
         <v>238</v>
       </c>
@@ -6455,7 +6455,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="218" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" s="10" t="s">
         <v>141</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" s="10" t="s">
         <v>101</v>
       </c>
@@ -6471,7 +6471,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" s="10" t="s">
         <v>169</v>
       </c>
@@ -6479,7 +6479,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" s="10" t="s">
         <v>390</v>
       </c>
@@ -6487,7 +6487,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" s="10" t="s">
         <v>443</v>
       </c>
@@ -6495,7 +6495,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
         <v>469</v>
       </c>
@@ -6503,7 +6503,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="224" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" s="10" t="s">
         <v>153</v>
       </c>
@@ -6511,7 +6511,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="225" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" s="10" t="s">
         <v>314</v>
       </c>
@@ -6519,7 +6519,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="226" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" s="10" t="s">
         <v>302</v>
       </c>
@@ -6543,12 +6543,12 @@
       <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="29" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6556,7 +6556,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>341</v>
       </c>
@@ -6564,7 +6564,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>340</v>
       </c>
@@ -6572,7 +6572,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>331</v>
       </c>
@@ -6580,7 +6580,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>330</v>
       </c>
@@ -6588,7 +6588,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>306</v>
       </c>
@@ -6612,13 +6612,13 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="38.140625" style="8" customWidth="1"/>
-    <col min="2" max="16384" width="9.140625" style="8"/>
+    <col min="1" max="1" width="38.109375" style="8" customWidth="1"/>
+    <col min="2" max="16384" width="9.109375" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -6626,7 +6626,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>7</v>
       </c>
@@ -6634,7 +6634,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>446</v>
       </c>
@@ -6642,7 +6642,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="8" t="s">
         <v>8</v>
       </c>
@@ -6650,7 +6650,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>470</v>
       </c>
@@ -6658,7 +6658,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="8" t="s">
         <v>435</v>
       </c>
@@ -6666,7 +6666,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="8" t="s">
         <v>5</v>
       </c>
@@ -6674,7 +6674,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
         <v>436</v>
       </c>
@@ -6682,7 +6682,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
         <v>9</v>
       </c>
@@ -6690,7 +6690,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>444</v>
       </c>
@@ -6698,7 +6698,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="8" t="s">
         <v>6</v>
       </c>
@@ -6706,7 +6706,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
         <v>4</v>
       </c>
@@ -6714,7 +6714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
         <v>2</v>
       </c>
@@ -6722,7 +6722,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>473</v>
       </c>
@@ -6730,7 +6730,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>445</v>
       </c>
@@ -6754,12 +6754,12 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="26" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6767,7 +6767,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>40</v>
       </c>
@@ -6775,7 +6775,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>41</v>
       </c>
@@ -6799,12 +6799,12 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="50.42578125" customWidth="1"/>
+    <col min="1" max="1" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>10</v>
       </c>
@@ -6833,12 +6833,12 @@
       <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="39.85546875" customWidth="1"/>
+    <col min="1" max="1" width="39.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>11</v>
       </c>
@@ -6867,12 +6867,12 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="32.28515625" customWidth="1"/>
+    <col min="1" max="1" width="32.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6880,7 +6880,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>12</v>
       </c>
@@ -6888,7 +6888,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>13</v>
       </c>

--- a/VideoGameCatalog.xlsx
+++ b/VideoGameCatalog.xlsx
@@ -9,24 +9,24 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29016" windowHeight="11580" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29016" windowHeight="11580" firstSheet="9" activeTab="14"/>
   </bookViews>
   <sheets>
-    <sheet name="PlayStation 4" sheetId="1" r:id="rId1"/>
-    <sheet name="PlayStation Vita" sheetId="12" r:id="rId2"/>
-    <sheet name="PlayStation 3" sheetId="2" r:id="rId3"/>
-    <sheet name="PlayStation Portable" sheetId="13" r:id="rId4"/>
-    <sheet name="PlayStation 2" sheetId="3" r:id="rId5"/>
+    <sheet name="PlayStation4" sheetId="1" r:id="rId1"/>
+    <sheet name="PlayStationVita" sheetId="12" r:id="rId2"/>
+    <sheet name="PlayStation3" sheetId="2" r:id="rId3"/>
+    <sheet name="PlayStationPortable" sheetId="13" r:id="rId4"/>
+    <sheet name="PlayStation2" sheetId="3" r:id="rId5"/>
     <sheet name="PlayStation" sheetId="4" r:id="rId6"/>
     <sheet name="Xbox" sheetId="5" r:id="rId7"/>
-    <sheet name="Xbox 360" sheetId="6" r:id="rId8"/>
-    <sheet name="Nintendo Wii" sheetId="7" r:id="rId9"/>
-    <sheet name="Nintendo DS" sheetId="8" r:id="rId10"/>
-    <sheet name="Nintendo 3DS" sheetId="9" r:id="rId11"/>
-    <sheet name="Game Boy Color" sheetId="14" r:id="rId12"/>
-    <sheet name="Game Boy Advance" sheetId="15" r:id="rId13"/>
-    <sheet name="Sega Saturn" sheetId="10" r:id="rId14"/>
-    <sheet name="Sega Mega Drive" sheetId="16" r:id="rId15"/>
+    <sheet name="Xbox360" sheetId="6" r:id="rId8"/>
+    <sheet name="NintendoWii" sheetId="7" r:id="rId9"/>
+    <sheet name="NintendoDS" sheetId="8" r:id="rId10"/>
+    <sheet name="Nintendo3DS" sheetId="9" r:id="rId11"/>
+    <sheet name="GameBoyColor" sheetId="14" r:id="rId12"/>
+    <sheet name="GameBoyAdvance" sheetId="15" r:id="rId13"/>
+    <sheet name="SegaSaturn" sheetId="10" r:id="rId14"/>
+    <sheet name="SegaMegaDrive" sheetId="16" r:id="rId15"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -1965,7 +1965,7 @@
   <dimension ref="A1:B178"/>
   <sheetViews>
     <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A178" sqref="A178"/>
+      <selection activeCell="A187" sqref="A187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3400,7 +3400,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="A23" sqref="A23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3469,7 +3469,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3651,7 +3651,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3753,7 +3753,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3823,7 +3823,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3877,7 +3877,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6796,7 +6796,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="A26" sqref="A26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6864,7 +6864,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>

--- a/VideoGameCatalog.xlsx
+++ b/VideoGameCatalog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29016" windowHeight="11580" firstSheet="9" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29016" windowHeight="11580" firstSheet="13" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="PlayStation4" sheetId="1" r:id="rId1"/>
@@ -1397,9 +1397,6 @@
     <t>Persona 4</t>
   </si>
   <si>
-    <t>XIII The Video Game</t>
-  </si>
-  <si>
     <t>Capcom Vs SNK 2</t>
   </si>
   <si>
@@ -1512,6 +1509,9 @@
   </si>
   <si>
     <t>Daytona USA</t>
+  </si>
+  <si>
+    <t>Fighting Fury</t>
   </si>
 </sst>
 </file>
@@ -2065,7 +2065,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>17</v>
@@ -2201,7 +2201,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>17</v>
@@ -2249,7 +2249,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>3</v>
@@ -2289,7 +2289,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>17</v>
@@ -2345,7 +2345,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B47" s="2" t="s">
         <v>3</v>
@@ -2361,7 +2361,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B49" s="2" t="s">
         <v>17</v>
@@ -2449,7 +2449,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B60" s="2" t="s">
         <v>17</v>
@@ -2625,7 +2625,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B82" s="2" t="s">
         <v>17</v>
@@ -2873,7 +2873,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B113" s="2" t="s">
         <v>17</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B122" s="2" t="s">
         <v>17</v>
@@ -3025,7 +3025,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>17</v>
@@ -3305,7 +3305,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B167" s="2" t="s">
         <v>17</v>
@@ -3670,7 +3670,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -3678,7 +3678,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -3686,7 +3686,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -3694,7 +3694,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -3702,7 +3702,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -3710,7 +3710,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B7" t="s">
         <v>3</v>
@@ -3718,7 +3718,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B8" t="s">
         <v>3</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B10" t="s">
         <v>3</v>
@@ -3772,7 +3772,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B2" t="s">
         <v>3</v>
@@ -3780,7 +3780,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -3788,7 +3788,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B4" t="s">
         <v>3</v>
@@ -3796,7 +3796,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B5" t="s">
         <v>3</v>
@@ -3804,7 +3804,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B6" t="s">
         <v>3</v>
@@ -3858,7 +3858,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>3</v>
@@ -3896,7 +3896,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>3</v>
@@ -4111,7 +4111,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B24" t="s">
         <v>17</v>
@@ -4183,7 +4183,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B33" t="s">
         <v>17</v>
@@ -4439,7 +4439,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B65" t="s">
         <v>17</v>
@@ -4631,7 +4631,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B89" t="s">
         <v>17</v>
@@ -5289,7 +5289,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B72" s="2" t="s">
         <v>17</v>
@@ -5473,7 +5473,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B95" s="2" t="s">
         <v>17</v>
@@ -5769,7 +5769,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" s="2" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B132" s="2" t="s">
         <v>17</v>
@@ -5993,7 +5993,7 @@
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B160" s="2" t="s">
         <v>17</v>
@@ -6121,7 +6121,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" s="2" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B176" s="2" t="s">
         <v>17</v>
@@ -6225,7 +6225,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="10" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B189" s="10" t="s">
         <v>3</v>
@@ -6265,7 +6265,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" s="2" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B194" s="2" t="s">
         <v>17</v>
@@ -6497,7 +6497,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B223" s="2" t="s">
         <v>3</v>
@@ -6636,7 +6636,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>3</v>
@@ -6652,7 +6652,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>3</v>
@@ -6724,7 +6724,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B14" s="2" t="s">
         <v>3</v>
@@ -6732,7 +6732,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>445</v>
+        <v>483</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>

--- a/VideoGameCatalog.xlsx
+++ b/VideoGameCatalog.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="29016" windowHeight="11580" firstSheet="13" activeTab="14"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="29016" windowHeight="11580" firstSheet="8" activeTab="14"/>
   </bookViews>
   <sheets>
     <sheet name="PlayStation4" sheetId="1" r:id="rId1"/>
@@ -28,6 +28,23 @@
     <sheet name="SegaSaturn" sheetId="10" r:id="rId14"/>
     <sheet name="SegaMegaDrive" sheetId="16" r:id="rId15"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">GameBoyAdvance!$A$1:$A$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="11" hidden="1">GameBoyColor!$A$1:$A$10</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">Nintendo3DS!$A$1:$A$20</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="9" hidden="1">NintendoDS!$A$1:$A$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="8" hidden="1">NintendoWii!$A$1:$A$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">PlayStation!$A$1:$A$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">PlayStation2!$A$1:$B$15</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">PlayStation3!$A$1:$A$226</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">PlayStation4!$A$1:$A$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">PlayStationPortable!$A$1:$A$6</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">PlayStationVita!$A$1:$A$100</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">SegaMegaDrive!$A$1:$A$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">SegaSaturn!$A$1:$A$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">Xbox!$A$1:$A$2</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">Xbox360!$A$1:$A$2</definedName>
+  </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1964,8 +1981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B178"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A187" sqref="A187"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3387,6 +3404,11 @@
       <c r="A178" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A176">
+    <sortState ref="A2:B176">
+      <sortCondition ref="A1:A176"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:B176">
     <sortCondition ref="A176"/>
   </sortState>
@@ -3400,7 +3422,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3457,6 +3479,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A6">
+    <sortState ref="A2:B6">
+      <sortCondition ref="A1:A6"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:B6">
     <sortCondition ref="A2"/>
   </sortState>
@@ -3469,7 +3496,7 @@
   <dimension ref="A1:B20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3638,6 +3665,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A20">
+    <sortState ref="A2:B20">
+      <sortCondition ref="A1:A20"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:B20">
     <sortCondition ref="A2"/>
   </sortState>
@@ -3651,7 +3683,7 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3741,6 +3773,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A10">
+    <sortState ref="A2:B10">
+      <sortCondition ref="A1:A10"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:B10">
     <sortCondition ref="A2"/>
   </sortState>
@@ -3753,7 +3790,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3811,6 +3848,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A6">
+    <sortState ref="A2:B6">
+      <sortCondition ref="A1:A6"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:B6">
     <sortCondition ref="A2"/>
   </sortState>
@@ -3823,7 +3865,7 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3841,30 +3883,35 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B2" s="4" t="s">
+      <c r="A2" s="2" t="s">
+        <v>482</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
-        <v>482</v>
-      </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="4" t="s">
         <v>3</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A4">
+    <sortState ref="A2:B4">
+      <sortCondition ref="A1:A4"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:B3">
     <sortCondition ref="A2"/>
   </sortState>
@@ -3877,7 +3924,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3907,6 +3954,11 @@
       <c r="B3" s="4"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A3">
+    <sortState ref="A2:B3">
+      <sortCondition ref="A1:A3"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -3915,9 +3967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B100"/>
   <sheetViews>
-    <sheetView topLeftCell="A86" workbookViewId="0">
-      <selection activeCell="A100" sqref="A100"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -4697,6 +4747,11 @@
       <c r="A100" s="11"/>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A100">
+    <sortState ref="A2:B100">
+      <sortCondition ref="A1:A100"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:B96">
     <sortCondition ref="A96"/>
   </sortState>
@@ -4709,7 +4764,7 @@
   <dimension ref="A1:B226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection sqref="A1:A1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6528,6 +6583,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A226">
+    <sortState ref="A2:B226">
+      <sortCondition ref="A1:A226"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:B226">
     <sortCondition ref="A2"/>
   </sortState>
@@ -6540,7 +6600,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6597,6 +6657,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A6">
+    <sortState ref="A2:B6">
+      <sortCondition ref="A1:A6"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:B6">
     <sortCondition ref="A2"/>
   </sortState>
@@ -6606,11 +6671,9 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B15"/>
+  <dimension ref="A1:B16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6667,16 +6730,16 @@
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" s="8" t="s">
+      <c r="A7" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="B7" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="8" t="s">
-        <v>436</v>
+        <v>5</v>
       </c>
       <c r="B8" s="8" t="s">
         <v>3</v>
@@ -6684,31 +6747,31 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="8" t="s">
+        <v>436</v>
+      </c>
+      <c r="B9" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="2" t="s">
+      <c r="B10" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="B10" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="8" t="s">
+      <c r="B11" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="8" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>3</v>
@@ -6716,31 +6779,40 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B13" s="8" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="2" t="s">
-        <v>472</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="B14" s="8" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>483</v>
+        <v>472</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="2"/>
+      <c r="B16" s="2"/>
+    </row>
   </sheetData>
+  <autoFilter ref="A1:B15">
+    <sortState ref="A2:B16">
+      <sortCondition ref="A1:A15"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:B15">
-    <sortCondition ref="A15"/>
+    <sortCondition ref="A2"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6751,7 +6823,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6784,8 +6856,13 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A3">
+    <sortState ref="A2:B3">
+      <sortCondition ref="A1:A3"/>
+    </sortState>
+  </autoFilter>
   <sortState ref="A2:B3">
-    <sortCondition ref="A2"/>
+    <sortCondition ref="A1"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6796,7 +6873,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A26" sqref="A26"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6821,6 +6898,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A2">
+    <sortState ref="A2:B2">
+      <sortCondition ref="A1:A2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6830,7 +6912,7 @@
   <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:B1"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6855,6 +6937,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A2">
+    <sortState ref="A2:B2">
+      <sortCondition ref="A1:A2"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -6864,7 +6951,7 @@
   <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6897,6 +6984,11 @@
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:A3">
+    <sortState ref="A2:B3">
+      <sortCondition ref="A1:A3"/>
+    </sortState>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>